--- a/backend/src/main/resources/documents/bulkquote.xlsx
+++ b/backend/src/main/resources/documents/bulkquote.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\dep-portal-herald\backend\src\main\resources\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwes\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488450B9-0712-4961-8EB6-A91380792958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96CAA9-08DC-4033-A25B-B5DA14169F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="478" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="181">
   <si>
     <t>Business Name</t>
   </si>
@@ -562,10 +560,43 @@
     <t>jones.com</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Not Quoted</t>
+    <t>2025-01-21 Integration</t>
+  </si>
+  <si>
+    <t>De-identify sensitive data at rest</t>
+  </si>
+  <si>
+    <t>RNTQQNdysGcLMBLvBJbjdLDxjjkhvVRnrDwZeBlGUkLPTTDHWsQylKDjqXzFsdJTMAChpgIZdmnodmyQgFjdAKvwDGUjEOwSGOGcUFhArrzTEbJwpuzGPLLYbmzLV</t>
+  </si>
+  <si>
+    <t>Wade_Abbott87@hotmail.com</t>
+  </si>
+  <si>
+    <t>529 Stanley Road, New Lue, SC, 19642, USA</t>
+  </si>
+  <si>
+    <t>Industrial Mold Manufacturing</t>
+  </si>
+  <si>
+    <t>www.nimble-tonight.com</t>
+  </si>
+  <si>
+    <t>Non-Profit</t>
+  </si>
+  <si>
+    <t>5c1fd25c-12bd-41d8-b8de-01c8c8d55c8c</t>
+  </si>
+  <si>
+    <t>61584f10-c8ba-42bc-9cf2-c40cda1fcfe8</t>
+  </si>
+  <si>
+    <t>a03dc930-f974-4459-b155-b73f36343e87</t>
+  </si>
+  <si>
+    <t>submissionId</t>
+  </si>
+  <si>
+    <t>4984c62f-33a9-4171-9a01-7c688fae62b6</t>
   </si>
 </sst>
 </file>
@@ -575,7 +606,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -598,6 +629,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roobert"/>
     </font>
   </fonts>
   <fills count="3">
@@ -666,7 +702,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,6 +733,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1003,56 +1046,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="AL7" sqref="AL7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="57.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="49.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="49.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="21.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="21.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="23.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="23.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="22.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="26.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="14" style="2" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="52.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5546875" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="24.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="24.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="19" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="27.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.81640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.453125" style="2" customWidth="1"/>
-    <col min="34" max="34" width="10" style="2" customWidth="1"/>
-    <col min="35" max="35" width="37.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="119.54296875" style="2" customWidth="1"/>
-    <col min="38" max="38" width="61.26953125" style="2" customWidth="1"/>
-    <col min="39" max="16384" width="9.1796875" style="2"/>
+    <col min="30" max="30" width="14.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="27.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="37.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="37.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="119.5546875" style="2" customWidth="1"/>
+    <col min="37" max="37" width="48.6640625" style="2" customWidth="1"/>
+    <col min="38" max="38" width="35" style="2" customWidth="1"/>
+    <col min="39" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:38">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1153,22 +1196,22 @@
         <v>32</v>
       </c>
       <c r="AH1" s="1" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AK1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AL1" s="1" t="s">
-        <v>36</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:38" ht="28.8">
       <c r="A2" s="5" t="s">
         <v>37</v>
       </c>
@@ -1268,15 +1311,13 @@
       <c r="AG2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="AH2" t="s">
-        <v>169</v>
-      </c>
+      <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="8"/>
+      <c r="AJ2" s="8"/>
+      <c r="AK2" s="10"/>
       <c r="AL2" s="10"/>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:38">
       <c r="A3" s="2" t="s">
         <v>50</v>
       </c>
@@ -1376,11 +1417,8 @@
       <c r="AG3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH3" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:38">
       <c r="A4" s="2" t="s">
         <v>61</v>
       </c>
@@ -1480,11 +1518,8 @@
       <c r="AG4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH4" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:38">
       <c r="A5" s="2" t="s">
         <v>70</v>
       </c>
@@ -1584,11 +1619,8 @@
       <c r="AG5" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH5" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:38">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -1688,11 +1720,8 @@
       <c r="AG6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH6" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -1792,11 +1821,8 @@
       <c r="AG7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH7" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
@@ -1896,11 +1922,8 @@
       <c r="AG8" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH8" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
         <v>94</v>
       </c>
@@ -2000,11 +2023,8 @@
       <c r="AG9" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH9" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
         <v>100</v>
       </c>
@@ -2104,11 +2124,8 @@
       <c r="AG10" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH10" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
         <v>106</v>
       </c>
@@ -2208,11 +2225,8 @@
       <c r="AG11" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH11" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -2312,11 +2326,8 @@
       <c r="AG12" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH12" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
         <v>118</v>
       </c>
@@ -2416,11 +2427,8 @@
       <c r="AG13" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH13" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
         <v>122</v>
       </c>
@@ -2520,11 +2528,8 @@
       <c r="AG14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH14" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
         <v>128</v>
       </c>
@@ -2624,11 +2629,8 @@
       <c r="AG15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH15" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
         <v>134</v>
       </c>
@@ -2728,11 +2730,8 @@
       <c r="AG16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH16" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
         <v>141</v>
       </c>
@@ -2832,11 +2831,8 @@
       <c r="AG17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH17" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
         <v>147</v>
       </c>
@@ -2936,11 +2932,8 @@
       <c r="AG18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH18" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
         <v>152</v>
       </c>
@@ -3040,11 +3033,8 @@
       <c r="AG19" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH19" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
         <v>158</v>
       </c>
@@ -3144,11 +3134,8 @@
       <c r="AG20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AH20" s="2" t="s">
-        <v>169</v>
-      </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
         <v>162</v>
       </c>
@@ -3248,14 +3235,126 @@
       <c r="AG21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AH21" s="2" t="s">
+    </row>
+    <row r="22" spans="1:38">
+      <c r="A22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9979629445</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H22" s="2">
+        <v>8788347</v>
+      </c>
+      <c r="I22" s="2">
+        <v>720886854</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1462</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>169</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>45808</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>5000000</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>750000</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="AC22" s="2">
+        <v>2500</v>
+      </c>
+      <c r="AD22" s="2">
+        <v>8</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>40127</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>36190</v>
+      </c>
+      <c r="AG22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH22" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AI22" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AK22" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" xr:uid="{F1BF12B0-DE38-4352-9BD0-6450CFA9D44E}"/>
     <hyperlink ref="M2" r:id="rId2" xr:uid="{B6885FF1-6655-4756-A99C-9753F6A1B9CA}"/>
+    <hyperlink ref="D22" r:id="rId3" xr:uid="{9CA378C5-A3ED-4058-97A9-7B9BA4677486}"/>
+    <hyperlink ref="M22" r:id="rId4" xr:uid="{CDE258C7-2FE6-4819-A8DC-5FB60EB59E91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/backend/src/main/resources/documents/bulkquote.xlsx
+++ b/backend/src/main/resources/documents/bulkquote.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwes\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anwes\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96CAA9-08DC-4033-A25B-B5DA14169F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDCC84A-2D04-4C74-8808-FF83032EA3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="193">
   <si>
     <t>Business Name</t>
   </si>
@@ -139,9 +139,6 @@
   </si>
   <si>
     <t>Producer ID</t>
-  </si>
-  <si>
-    <t>Response JSON</t>
   </si>
   <si>
     <t>Quote IDs</t>
@@ -597,6 +594,45 @@
   </si>
   <si>
     <t>4984c62f-33a9-4171-9a01-7c688fae62b6</t>
+  </si>
+  <si>
+    <t>d2dfeaf3-0808-4857-b3ff-300111a7bbc0</t>
+  </si>
+  <si>
+    <t>37b4bcc5-f6df-489d-a7fd-9d37665edd58</t>
+  </si>
+  <si>
+    <t>93c14df5-30ff-4048-86a1-5afa3138d069</t>
+  </si>
+  <si>
+    <t>a8c2c5e4-9abe-4fe7-96ae-ee9aa5bb0cfb</t>
+  </si>
+  <si>
+    <t>1e1a6977-3ab5-4a20-86f0-19c4948b76ee</t>
+  </si>
+  <si>
+    <t>d8cf1727-283b-488f-b77e-b77f8ac49e73</t>
+  </si>
+  <si>
+    <t>b48918bb-3187-4425-8cd4-e7a0f842e742</t>
+  </si>
+  <si>
+    <t>e464677c-d070-410a-911d-26d21d337c46</t>
+  </si>
+  <si>
+    <t>9c36f4b1-86f9-4466-8b7a-3b419f027e74</t>
+  </si>
+  <si>
+    <t>dec5c1f9-5660-44bf-911b-08ea1f02fbb6</t>
+  </si>
+  <si>
+    <t>2cbc3979-e0f7-4f0a-bc3f-3869f44cd154</t>
+  </si>
+  <si>
+    <t>bfd478c8-7396-421c-b3a8-aa68fcf1c93c</t>
+  </si>
+  <si>
+    <t>Response Json</t>
   </si>
 </sst>
 </file>
@@ -606,7 +642,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -634,6 +670,18 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roobert"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF041E49"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -702,7 +750,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -740,6 +788,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="AL7" sqref="AL7"/>
+    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -1202,36 +1255,36 @@
         <v>34</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="AL1" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:38" ht="28.8">
       <c r="A2" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="7">
         <v>7711234567</v>
       </c>
       <c r="F2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>42</v>
       </c>
       <c r="H2" s="5">
         <v>600</v>
@@ -1243,46 +1296,46 @@
         <v>14</v>
       </c>
       <c r="K2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="O2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="Q2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="Y2" s="9">
         <v>45637</v>
@@ -1309,35 +1362,45 @@
         <v>45658</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH2" s="5"/>
-      <c r="AI2" s="5"/>
-      <c r="AJ2" s="8"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10"/>
+        <v>37</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI2" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="AL2" s="10" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" ht="28.8">
       <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="11" t="s">
         <v>51</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="E3" s="2">
         <v>5081234567</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="H3" s="2">
         <v>500</v>
@@ -1349,46 +1412,46 @@
         <v>25</v>
       </c>
       <c r="K3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="2" t="s">
+      <c r="S3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="S3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="Y3" s="3">
         <v>44910</v>
@@ -1415,30 +1478,45 @@
         <v>45658</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="AH3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AI3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="AL3" s="2" t="s">
+        <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" ht="28.8">
       <c r="A4" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="11" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E4" s="2">
         <v>1121234567</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="H4" s="2">
         <v>1000</v>
@@ -1450,46 +1528,46 @@
         <v>20</v>
       </c>
       <c r="K4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="S4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X4" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y4" s="3">
         <v>44617</v>
@@ -1516,30 +1594,45 @@
         <v>45658</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="AH4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AK4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AL4" s="2" t="s">
+        <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" ht="28.8">
       <c r="A5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="E5" s="2">
         <v>7881231234</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="2">
         <v>500</v>
@@ -1551,46 +1644,46 @@
         <v>14</v>
       </c>
       <c r="K5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X5" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y5" s="3">
         <v>44473</v>
@@ -1617,30 +1710,45 @@
         <v>45658</v>
       </c>
       <c r="AG5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="AH5" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI5" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK5" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="AL5" s="2" t="s">
+        <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" ht="28.8">
       <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="11" t="s">
         <v>76</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="E6" s="2">
         <v>9011231234</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="H6" s="2">
         <v>1000</v>
@@ -1652,46 +1760,46 @@
         <v>15</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R6" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X6" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y6" s="3">
         <v>45020</v>
@@ -1718,30 +1826,45 @@
         <v>45658</v>
       </c>
       <c r="AG6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="AH6" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:38">
       <c r="A7" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E7" s="2">
         <v>6511231234</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="H7" s="2">
         <v>500</v>
@@ -1753,46 +1876,46 @@
         <v>20</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="Q7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y7" s="3">
         <v>44910</v>
@@ -1819,30 +1942,30 @@
         <v>45658</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:38">
       <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E8" s="2">
         <v>7711231234</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="H8" s="2">
         <v>1000</v>
@@ -1854,46 +1977,46 @@
         <v>17</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="N8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="S8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y8" s="3">
         <v>43837</v>
@@ -1920,30 +2043,30 @@
         <v>45658</v>
       </c>
       <c r="AG8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:38">
       <c r="A9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="E9" s="2">
         <v>3411231234</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H9" s="2">
         <v>500</v>
@@ -1955,46 +2078,46 @@
         <v>21</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="Q9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y9" s="3">
         <v>45535</v>
@@ -2021,30 +2144,30 @@
         <v>45658</v>
       </c>
       <c r="AG9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:38">
       <c r="A10" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="E10" s="2">
         <v>2211231234</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="H10" s="2">
         <v>500</v>
@@ -2056,46 +2179,46 @@
         <v>15</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y10" s="3">
         <v>44979</v>
@@ -2122,30 +2245,30 @@
         <v>45658</v>
       </c>
       <c r="AG10" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:38">
       <c r="A11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="E11" s="2">
         <v>1211231234</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>110</v>
       </c>
       <c r="H11" s="2">
         <v>500</v>
@@ -2157,46 +2280,46 @@
         <v>13</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="S11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X11" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="Y11" s="3">
         <v>44097</v>
@@ -2223,30 +2346,30 @@
         <v>45658</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:38">
       <c r="A12" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E12" s="2">
         <v>1811231234</v>
       </c>
       <c r="F12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="H12" s="2">
         <v>500</v>
@@ -2258,46 +2381,46 @@
         <v>17</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N12" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="O12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="Q12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W12" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X12" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="3">
         <v>44337</v>
@@ -2324,30 +2447,30 @@
         <v>45658</v>
       </c>
       <c r="AG12" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:38">
       <c r="A13" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="E13" s="2">
         <v>6551231234</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H13" s="2">
         <v>500</v>
@@ -2359,46 +2482,46 @@
         <v>19</v>
       </c>
       <c r="K13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="N13" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X13" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y13" s="3">
         <v>45368</v>
@@ -2425,30 +2548,30 @@
         <v>45658</v>
       </c>
       <c r="AG13" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:38">
       <c r="A14" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="E14" s="2">
         <v>3321231234</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="H14" s="2">
         <v>200</v>
@@ -2460,46 +2583,46 @@
         <v>27</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="W14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="X14" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Y14" s="3">
         <v>45235</v>
@@ -2526,30 +2649,30 @@
         <v>45658</v>
       </c>
       <c r="AG14" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:38">
       <c r="A15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="E15" s="2">
         <v>9011231234</v>
       </c>
       <c r="F15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="H15" s="2">
         <v>150</v>
@@ -2561,46 +2684,46 @@
         <v>7</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y15" s="3">
         <v>44325</v>
@@ -2627,30 +2750,30 @@
         <v>45658</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:38">
       <c r="A16" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="E16" s="2">
         <v>9011231234</v>
       </c>
       <c r="F16" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="H16" s="2">
         <v>100</v>
@@ -2662,46 +2785,46 @@
         <v>9</v>
       </c>
       <c r="K16" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R16" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="X16" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="Y16" s="3">
         <v>44367</v>
@@ -2728,30 +2851,30 @@
         <v>45658</v>
       </c>
       <c r="AG16" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:38">
       <c r="A17" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="E17" s="2">
         <v>9011231234</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>144</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="H17" s="2">
         <v>50</v>
@@ -2763,46 +2886,46 @@
         <v>4</v>
       </c>
       <c r="K17" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W17" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y17" s="3">
         <v>44483</v>
@@ -2829,30 +2952,30 @@
         <v>45658</v>
       </c>
       <c r="AG17" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:38">
       <c r="A18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="E18" s="2">
         <v>9011231234</v>
       </c>
       <c r="F18" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="H18" s="2">
         <v>20</v>
@@ -2864,46 +2987,46 @@
         <v>7</v>
       </c>
       <c r="K18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="N18" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X18" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y18" s="3">
         <v>43891</v>
@@ -2930,30 +3053,30 @@
         <v>45658</v>
       </c>
       <c r="AG18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:38">
       <c r="A19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="E19" s="2">
         <v>9011231234</v>
       </c>
       <c r="F19" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>156</v>
       </c>
       <c r="H19" s="2">
         <v>50</v>
@@ -2965,46 +3088,46 @@
         <v>10</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y19" s="3">
         <v>45348</v>
@@ -3031,30 +3154,30 @@
         <v>45658</v>
       </c>
       <c r="AG19" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:38">
       <c r="A20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>159</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="E20" s="2">
         <v>9011231234</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H20" s="2">
         <v>25</v>
@@ -3066,46 +3189,46 @@
         <v>4</v>
       </c>
       <c r="K20" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="N20" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R20" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="Q20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="S20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="W20" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="3">
         <v>45498</v>
@@ -3132,30 +3255,30 @@
         <v>45658</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:38">
       <c r="A21" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="D21" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E21" s="2">
         <v>9011231234</v>
       </c>
       <c r="F21" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="H21" s="2">
         <v>100</v>
@@ -3167,46 +3290,46 @@
         <v>16</v>
       </c>
       <c r="K21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X21" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="S21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X21" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="Y21" s="3">
         <v>44877</v>
@@ -3233,30 +3356,30 @@
         <v>45658</v>
       </c>
       <c r="AG21" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:38">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>170</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>171</v>
       </c>
       <c r="E22" s="2">
         <v>9979629445</v>
       </c>
       <c r="F22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="H22" s="2">
         <v>8788347</v>
@@ -3268,46 +3391,46 @@
         <v>1462</v>
       </c>
       <c r="K22" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X22" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="N22" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="S22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="U22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="V22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="W22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="X22" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="Y22" s="13">
         <v>45808</v>
@@ -3334,19 +3457,19 @@
         <v>36190</v>
       </c>
       <c r="AG22" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AH22" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI22" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="AI22" s="2" t="s">
+      <c r="AK22" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="AK22" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="AL22" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -3355,6 +3478,10 @@
     <hyperlink ref="M2" r:id="rId2" xr:uid="{B6885FF1-6655-4756-A99C-9753F6A1B9CA}"/>
     <hyperlink ref="D22" r:id="rId3" xr:uid="{9CA378C5-A3ED-4058-97A9-7B9BA4677486}"/>
     <hyperlink ref="M22" r:id="rId4" xr:uid="{CDE258C7-2FE6-4819-A8DC-5FB60EB59E91}"/>
+    <hyperlink ref="D3" r:id="rId5" xr:uid="{D243A5C7-7AE9-484B-A589-72308DB95129}"/>
+    <hyperlink ref="D4" r:id="rId6" xr:uid="{B6D465C9-EB35-4A31-B267-F930238E9578}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{7F303DF3-726F-4232-983E-6A062628B729}"/>
+    <hyperlink ref="D6" r:id="rId8" xr:uid="{B17DB53F-1EFC-4D2B-AB67-A305EE85B691}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
